--- a/src/data/Arab States/Digital.xlsx
+++ b/src/data/Arab States/Digital.xlsx
@@ -1942,10 +1942,10 @@
         <v>2000000</v>
       </c>
       <c r="AQ2">
-        <v>1310872.86</v>
+        <v>1734181.7</v>
       </c>
       <c r="AR2">
-        <v>1109217.9</v>
+        <v>1458899.56</v>
       </c>
       <c r="AS2" t="s">
         <v>207</v>
@@ -1954,10 +1954,10 @@
         <v>2000000</v>
       </c>
       <c r="AU2">
-        <v>1473524.26</v>
+        <v>1671858.31</v>
       </c>
       <c r="AV2">
-        <v>1105819.6</v>
+        <v>1400589.02</v>
       </c>
       <c r="AW2" t="s">
         <v>207</v>
@@ -1966,10 +1966,10 @@
         <v>2000000</v>
       </c>
       <c r="AY2">
-        <v>1553518.76</v>
+        <v>1747424.84</v>
       </c>
       <c r="AZ2">
-        <v>1224419.05</v>
+        <v>1428705.25</v>
       </c>
       <c r="BA2" t="s">
         <v>207</v>
@@ -1978,10 +1978,10 @@
         <v>2000000</v>
       </c>
       <c r="BC2">
-        <v>1247414.59</v>
+        <v>1663655.31</v>
       </c>
       <c r="BD2">
-        <v>814920.64</v>
+        <v>1378381.52</v>
       </c>
       <c r="BE2" t="s">
         <v>207</v>
@@ -1990,10 +1990,10 @@
         <v>2000000</v>
       </c>
       <c r="BG2">
-        <v>1779610.58</v>
+        <v>1682517.34</v>
       </c>
       <c r="BH2">
-        <v>1322226.56</v>
+        <v>1250401.51</v>
       </c>
       <c r="BI2" t="s">
         <v>207</v>
@@ -2002,10 +2002,10 @@
         <v>2000000</v>
       </c>
       <c r="BK2">
-        <v>1288628</v>
+        <v>1900000</v>
       </c>
       <c r="BL2">
-        <v>1023842.47</v>
+        <v>1375959.1</v>
       </c>
       <c r="BM2" t="s">
         <v>207</v>
@@ -2014,10 +2014,10 @@
         <v>2000000</v>
       </c>
       <c r="BO2">
-        <v>1646013.88</v>
+        <v>1564910.74</v>
       </c>
       <c r="BP2">
-        <v>1169758.69</v>
+        <v>1235567.6</v>
       </c>
       <c r="BQ2" t="s">
         <v>207</v>
@@ -2026,10 +2026,10 @@
         <v>2000000</v>
       </c>
       <c r="BS2">
-        <v>1787074.05</v>
+        <v>1482385.26</v>
       </c>
       <c r="BT2">
-        <v>1223773.54</v>
+        <v>1182596.42</v>
       </c>
       <c r="BU2" t="s">
         <v>207</v>
@@ -2038,10 +2038,10 @@
         <v>2000000</v>
       </c>
       <c r="BW2">
-        <v>1745441.15</v>
+        <v>1389489.16</v>
       </c>
       <c r="BX2">
-        <v>1637484.32</v>
+        <v>1122847.25</v>
       </c>
       <c r="BY2" t="s">
         <v>207</v>
@@ -2050,10 +2050,10 @@
         <v>2000000</v>
       </c>
       <c r="CA2">
-        <v>1885453.66</v>
+        <v>1439330.39</v>
       </c>
       <c r="CB2">
-        <v>1331866.94</v>
+        <v>1094692.4</v>
       </c>
       <c r="CC2" t="s">
         <v>207</v>
@@ -2181,10 +2181,10 @@
         <v>1833720</v>
       </c>
       <c r="AQ3">
-        <v>1529302.16</v>
+        <v>1561701.74</v>
       </c>
       <c r="AR3">
-        <v>965586.35</v>
+        <v>1332170.58</v>
       </c>
       <c r="AS3" t="s">
         <v>207</v>
@@ -2193,10 +2193,10 @@
         <v>1833720</v>
       </c>
       <c r="AU3">
-        <v>1492742.88</v>
+        <v>1377673.03</v>
       </c>
       <c r="AV3">
-        <v>1032892.55</v>
+        <v>1156170.73</v>
       </c>
       <c r="AW3" t="s">
         <v>207</v>
@@ -2205,10 +2205,10 @@
         <v>1833720</v>
       </c>
       <c r="AY3">
-        <v>1286465.77</v>
+        <v>1334268.95</v>
       </c>
       <c r="AZ3">
-        <v>841466.73</v>
+        <v>895630.64</v>
       </c>
       <c r="BA3" t="s">
         <v>207</v>
@@ -2217,10 +2217,10 @@
         <v>1833720</v>
       </c>
       <c r="BC3">
-        <v>1544107.01</v>
+        <v>1472592.8</v>
       </c>
       <c r="BD3">
-        <v>1053488.48</v>
+        <v>1064667.97</v>
       </c>
       <c r="BE3" t="s">
         <v>207</v>
@@ -2229,10 +2229,10 @@
         <v>1833720</v>
       </c>
       <c r="BG3">
-        <v>1668000.3</v>
+        <v>1393274.9</v>
       </c>
       <c r="BH3">
-        <v>1137860.92</v>
+        <v>1135913.61</v>
       </c>
       <c r="BI3" t="s">
         <v>207</v>
@@ -2241,10 +2241,10 @@
         <v>1833720</v>
       </c>
       <c r="BK3">
-        <v>1609770.92</v>
+        <v>1346507.65</v>
       </c>
       <c r="BL3">
-        <v>1382532.98</v>
+        <v>1009480.4</v>
       </c>
       <c r="BM3" t="s">
         <v>207</v>
@@ -2253,10 +2253,10 @@
         <v>1833720</v>
       </c>
       <c r="BO3">
-        <v>1179681.16</v>
+        <v>1325974.14</v>
       </c>
       <c r="BP3">
-        <v>1037187.25</v>
+        <v>1232938.04</v>
       </c>
       <c r="BQ3" t="s">
         <v>207</v>
@@ -2265,10 +2265,10 @@
         <v>1833720</v>
       </c>
       <c r="BS3">
-        <v>1523648.12</v>
+        <v>1534763.85</v>
       </c>
       <c r="BT3">
-        <v>1049743.91</v>
+        <v>1177796.69</v>
       </c>
       <c r="BU3" t="s">
         <v>207</v>
@@ -2277,10 +2277,10 @@
         <v>1833720</v>
       </c>
       <c r="BW3">
-        <v>1339778.15</v>
+        <v>1686697.16</v>
       </c>
       <c r="BX3">
-        <v>946735.74</v>
+        <v>1279184.58</v>
       </c>
       <c r="BY3" t="s">
         <v>207</v>
@@ -2289,10 +2289,10 @@
         <v>1833720</v>
       </c>
       <c r="CA3">
-        <v>1727789.8</v>
+        <v>1528341.07</v>
       </c>
       <c r="CB3">
-        <v>1236363.61</v>
+        <v>1101215.41</v>
       </c>
       <c r="CC3" t="s">
         <v>207</v>
@@ -2411,10 +2411,10 @@
         <v>646000</v>
       </c>
       <c r="AQ4">
-        <v>598249.72</v>
+        <v>569579.72</v>
       </c>
       <c r="AR4">
-        <v>412294.16</v>
+        <v>530076.74</v>
       </c>
       <c r="AS4" t="s">
         <v>207</v>
@@ -2423,10 +2423,10 @@
         <v>646000</v>
       </c>
       <c r="AU4">
-        <v>441247.77</v>
+        <v>613700</v>
       </c>
       <c r="AV4">
-        <v>339409.43</v>
+        <v>456983.73</v>
       </c>
       <c r="AW4" t="s">
         <v>207</v>
@@ -2435,10 +2435,10 @@
         <v>646000</v>
       </c>
       <c r="AY4">
-        <v>564020.27</v>
+        <v>510998.29</v>
       </c>
       <c r="AZ4">
-        <v>431330.25</v>
+        <v>429328.31</v>
       </c>
       <c r="BA4" t="s">
         <v>207</v>
@@ -2447,10 +2447,10 @@
         <v>273000</v>
       </c>
       <c r="BC4">
-        <v>237686.65</v>
+        <v>203795.32</v>
       </c>
       <c r="BD4">
-        <v>201317.75</v>
+        <v>147412.02</v>
       </c>
       <c r="BE4" t="s">
         <v>207</v>
@@ -2459,10 +2459,10 @@
         <v>900000</v>
       </c>
       <c r="BG4">
-        <v>552393.4</v>
+        <v>805971.04</v>
       </c>
       <c r="BH4">
-        <v>478621.37</v>
+        <v>541099.38</v>
       </c>
       <c r="BI4" t="s">
         <v>207</v>
@@ -2471,10 +2471,10 @@
         <v>900000</v>
       </c>
       <c r="BK4">
-        <v>834810.11</v>
+        <v>790686.17</v>
       </c>
       <c r="BL4">
-        <v>501070.07</v>
+        <v>552348.97</v>
       </c>
       <c r="BM4" t="s">
         <v>207</v>
@@ -2483,10 +2483,10 @@
         <v>1000000</v>
       </c>
       <c r="BO4">
-        <v>866876.29</v>
+        <v>649294.71</v>
       </c>
       <c r="BP4">
-        <v>571451.3100000001</v>
+        <v>556419.28</v>
       </c>
       <c r="BQ4" t="s">
         <v>207</v>
@@ -2495,10 +2495,10 @@
         <v>1000000</v>
       </c>
       <c r="BS4">
-        <v>649729.21</v>
+        <v>722711.33</v>
       </c>
       <c r="BT4">
-        <v>604353.85</v>
+        <v>655187.98</v>
       </c>
       <c r="BU4" t="s">
         <v>207</v>
@@ -2507,10 +2507,10 @@
         <v>1000000</v>
       </c>
       <c r="BW4">
-        <v>742576.88</v>
+        <v>720432.05</v>
       </c>
       <c r="BX4">
-        <v>581431.52</v>
+        <v>498593.4</v>
       </c>
       <c r="BY4" t="s">
         <v>207</v>
@@ -2519,10 +2519,10 @@
         <v>1000000</v>
       </c>
       <c r="CA4">
-        <v>680996.46</v>
+        <v>782458.17</v>
       </c>
       <c r="CB4">
-        <v>452302.5</v>
+        <v>670038.97</v>
       </c>
       <c r="CC4" t="s">
         <v>207</v>
@@ -2650,10 +2650,10 @@
         <v>1166280</v>
       </c>
       <c r="AQ5">
-        <v>1061933.78</v>
+        <v>1039997.03</v>
       </c>
       <c r="AR5">
-        <v>980213.58</v>
+        <v>983049.4</v>
       </c>
       <c r="AS5" t="s">
         <v>207</v>
@@ -2662,10 +2662,10 @@
         <v>1166280</v>
       </c>
       <c r="AU5">
-        <v>714313.47</v>
+        <v>884068.3199999999</v>
       </c>
       <c r="AV5">
-        <v>589306.6800000001</v>
+        <v>653091.78</v>
       </c>
       <c r="AW5" t="s">
         <v>207</v>
@@ -2674,10 +2674,10 @@
         <v>1166280</v>
       </c>
       <c r="AY5">
-        <v>804270.24</v>
+        <v>950720.6</v>
       </c>
       <c r="AZ5">
-        <v>660686.59</v>
+        <v>701111.52</v>
       </c>
       <c r="BA5" t="s">
         <v>207</v>
@@ -2686,10 +2686,10 @@
         <v>1166280</v>
       </c>
       <c r="BC5">
-        <v>1004799.02</v>
+        <v>939289.78</v>
       </c>
       <c r="BD5">
-        <v>845743.27</v>
+        <v>730825.33</v>
       </c>
       <c r="BE5" t="s">
         <v>207</v>
@@ -2698,10 +2698,10 @@
         <v>1166280</v>
       </c>
       <c r="BG5">
-        <v>955368.6800000001</v>
+        <v>1039884.58</v>
       </c>
       <c r="BH5">
-        <v>720378.27</v>
+        <v>764153.1800000001</v>
       </c>
       <c r="BI5" t="s">
         <v>207</v>
@@ -2710,10 +2710,10 @@
         <v>1166280</v>
       </c>
       <c r="BK5">
-        <v>844189.08</v>
+        <v>774237.54</v>
       </c>
       <c r="BL5">
-        <v>615712.89</v>
+        <v>557448.52</v>
       </c>
       <c r="BM5" t="s">
         <v>207</v>
@@ -2722,10 +2722,10 @@
         <v>1166280</v>
       </c>
       <c r="BO5">
-        <v>801456.6</v>
+        <v>945844.1800000001</v>
       </c>
       <c r="BP5">
-        <v>695811.04</v>
+        <v>793018.29</v>
       </c>
       <c r="BQ5" t="s">
         <v>207</v>
@@ -2734,10 +2734,10 @@
         <v>1166280</v>
       </c>
       <c r="BS5">
-        <v>958253.5600000001</v>
+        <v>982111.16</v>
       </c>
       <c r="BT5">
-        <v>610032.53</v>
+        <v>728997.22</v>
       </c>
       <c r="BU5" t="s">
         <v>207</v>
@@ -2746,10 +2746,10 @@
         <v>1166280</v>
       </c>
       <c r="BW5">
-        <v>1002469.35</v>
+        <v>1063956.83</v>
       </c>
       <c r="BX5">
-        <v>910628.78</v>
+        <v>934470.6800000001</v>
       </c>
       <c r="BY5" t="s">
         <v>207</v>
@@ -2758,10 +2758,10 @@
         <v>1166280</v>
       </c>
       <c r="CA5">
-        <v>867886.1899999999</v>
+        <v>851990.0600000001</v>
       </c>
       <c r="CB5">
-        <v>592664.08</v>
+        <v>623862.86</v>
       </c>
       <c r="CC5" t="s">
         <v>207</v>
@@ -2889,10 +2889,10 @@
         <v>600000</v>
       </c>
       <c r="AQ6">
-        <v>462914.64</v>
+        <v>567165.55</v>
       </c>
       <c r="AR6">
-        <v>344495.65</v>
+        <v>486344.91</v>
       </c>
       <c r="AS6" t="s">
         <v>207</v>
@@ -2901,10 +2901,10 @@
         <v>600000</v>
       </c>
       <c r="AU6">
-        <v>532797.26</v>
+        <v>498293.88</v>
       </c>
       <c r="AV6">
-        <v>455326.34</v>
+        <v>367273.44</v>
       </c>
       <c r="AW6" t="s">
         <v>207</v>
@@ -2913,10 +2913,10 @@
         <v>600000</v>
       </c>
       <c r="AY6">
-        <v>403986.44</v>
+        <v>497198.96</v>
       </c>
       <c r="AZ6">
-        <v>311502.52</v>
+        <v>344983.07</v>
       </c>
       <c r="BA6" t="s">
         <v>207</v>
@@ -2925,10 +2925,10 @@
         <v>600000</v>
       </c>
       <c r="BC6">
-        <v>508609.18</v>
+        <v>498785.08</v>
       </c>
       <c r="BD6">
-        <v>402503.05</v>
+        <v>388960.98</v>
       </c>
       <c r="BE6" t="s">
         <v>207</v>
@@ -2937,10 +2937,10 @@
         <v>600000</v>
       </c>
       <c r="BG6">
-        <v>537504.11</v>
+        <v>510250.35</v>
       </c>
       <c r="BH6">
-        <v>477551.71</v>
+        <v>367300.64</v>
       </c>
       <c r="BI6" t="s">
         <v>207</v>
@@ -2949,10 +2949,10 @@
         <v>600000</v>
       </c>
       <c r="BK6">
-        <v>366994.77</v>
+        <v>439163.57</v>
       </c>
       <c r="BL6">
-        <v>325173.26</v>
+        <v>299222.83</v>
       </c>
       <c r="BM6" t="s">
         <v>207</v>
@@ -2961,10 +2961,10 @@
         <v>100000</v>
       </c>
       <c r="BO6">
-        <v>94427.08</v>
+        <v>81893.52</v>
       </c>
       <c r="BP6">
-        <v>84538.14999999999</v>
+        <v>70128.14999999999</v>
       </c>
       <c r="BQ6" t="s">
         <v>207</v>
@@ -2973,10 +2973,10 @@
         <v>100000</v>
       </c>
       <c r="BS6">
-        <v>82142.53999999999</v>
+        <v>80399.03999999999</v>
       </c>
       <c r="BT6">
-        <v>54355.48</v>
+        <v>64309.47</v>
       </c>
       <c r="BU6" t="s">
         <v>207</v>
@@ -2985,10 +2985,10 @@
         <v>100000</v>
       </c>
       <c r="BW6">
-        <v>76211.3</v>
+        <v>76662.69</v>
       </c>
       <c r="BX6">
-        <v>53440.32</v>
+        <v>62158.09</v>
       </c>
       <c r="BY6" t="s">
         <v>207</v>
@@ -2997,10 +2997,10 @@
         <v>100000</v>
       </c>
       <c r="CA6">
-        <v>84392.83</v>
+        <v>69859.83</v>
       </c>
       <c r="CB6">
-        <v>57717.95</v>
+        <v>50874.89</v>
       </c>
       <c r="CC6" t="s">
         <v>207</v>
@@ -3125,10 +3125,10 @@
         <v>200000</v>
       </c>
       <c r="AQ7">
-        <v>139469.59</v>
+        <v>137592.32</v>
       </c>
       <c r="AR7">
-        <v>123093.59</v>
+        <v>120359.88</v>
       </c>
       <c r="AS7" t="s">
         <v>207</v>
@@ -3137,10 +3137,10 @@
         <v>200000</v>
       </c>
       <c r="AU7">
-        <v>152851.17</v>
+        <v>142486.48</v>
       </c>
       <c r="AV7">
-        <v>121957.9</v>
+        <v>109859.26</v>
       </c>
       <c r="AW7" t="s">
         <v>207</v>
@@ -3149,10 +3149,10 @@
         <v>200000</v>
       </c>
       <c r="AY7">
-        <v>133315.41</v>
+        <v>162888.04</v>
       </c>
       <c r="AZ7">
-        <v>115435.81</v>
+        <v>108322.25</v>
       </c>
       <c r="BA7" t="s">
         <v>207</v>
@@ -3161,10 +3161,10 @@
         <v>200000</v>
       </c>
       <c r="BC7">
-        <v>167476.59</v>
+        <v>164829</v>
       </c>
       <c r="BD7">
-        <v>131328.91</v>
+        <v>143207</v>
       </c>
       <c r="BE7" t="s">
         <v>207</v>
@@ -3173,10 +3173,10 @@
         <v>200000</v>
       </c>
       <c r="BG7">
-        <v>142717.4</v>
+        <v>168161.39</v>
       </c>
       <c r="BH7">
-        <v>127488.15</v>
+        <v>143948.57</v>
       </c>
       <c r="BI7" t="s">
         <v>207</v>
@@ -3185,10 +3185,10 @@
         <v>200000</v>
       </c>
       <c r="BK7">
-        <v>168222.35</v>
+        <v>152221.96</v>
       </c>
       <c r="BL7">
-        <v>132025.75</v>
+        <v>109213.18</v>
       </c>
       <c r="BM7" t="s">
         <v>207</v>
@@ -3197,10 +3197,10 @@
         <v>200000</v>
       </c>
       <c r="BO7">
-        <v>167890.61</v>
+        <v>164557.71</v>
       </c>
       <c r="BP7">
-        <v>154526.36</v>
+        <v>147143.07</v>
       </c>
       <c r="BQ7" t="s">
         <v>207</v>
@@ -3209,10 +3209,10 @@
         <v>100000</v>
       </c>
       <c r="BS7">
-        <v>91072.88</v>
+        <v>70878.96000000001</v>
       </c>
       <c r="BT7">
-        <v>62531.99</v>
+        <v>47581.04</v>
       </c>
       <c r="BU7" t="s">
         <v>207</v>
@@ -3221,10 +3221,10 @@
         <v>100000</v>
       </c>
       <c r="BW7">
-        <v>71159.63</v>
+        <v>68950.14999999999</v>
       </c>
       <c r="BX7">
-        <v>60053.88</v>
+        <v>56585.55</v>
       </c>
       <c r="BY7" t="s">
         <v>207</v>
@@ -3233,10 +3233,10 @@
         <v>100000</v>
       </c>
       <c r="CA7">
-        <v>89238.89</v>
+        <v>74782.37</v>
       </c>
       <c r="CB7">
-        <v>79592.52</v>
+        <v>61350.6</v>
       </c>
       <c r="CC7" t="s">
         <v>207</v>
@@ -3361,10 +3361,10 @@
         <v>257950</v>
       </c>
       <c r="AQ8">
-        <v>172518.51</v>
+        <v>191704.52</v>
       </c>
       <c r="AR8">
-        <v>141075.91</v>
+        <v>155170.24</v>
       </c>
       <c r="AS8" t="s">
         <v>207</v>
@@ -3373,10 +3373,10 @@
         <v>257950</v>
       </c>
       <c r="AU8">
-        <v>157133.67</v>
+        <v>180769.31</v>
       </c>
       <c r="AV8">
-        <v>144456.73</v>
+        <v>119815.15</v>
       </c>
       <c r="AW8" t="s">
         <v>207</v>
@@ -3385,10 +3385,10 @@
         <v>257950</v>
       </c>
       <c r="AY8">
-        <v>183732.8</v>
+        <v>201244.4</v>
       </c>
       <c r="AZ8">
-        <v>138643.79</v>
+        <v>171048.36</v>
       </c>
       <c r="BA8" t="s">
         <v>207</v>
@@ -3397,10 +3397,10 @@
         <v>257950</v>
       </c>
       <c r="BC8">
-        <v>173376.19</v>
+        <v>217130.93</v>
       </c>
       <c r="BD8">
-        <v>117230.5</v>
+        <v>182336.23</v>
       </c>
       <c r="BE8" t="s">
         <v>207</v>
@@ -3409,10 +3409,10 @@
         <v>257950</v>
       </c>
       <c r="BG8">
-        <v>185931.76</v>
+        <v>213822.17</v>
       </c>
       <c r="BH8">
-        <v>152030.08</v>
+        <v>166995.85</v>
       </c>
       <c r="BI8" t="s">
         <v>207</v>
@@ -3421,10 +3421,10 @@
         <v>257950</v>
       </c>
       <c r="BK8">
-        <v>191336.12</v>
+        <v>193959.29</v>
       </c>
       <c r="BL8">
-        <v>174765.55</v>
+        <v>134223.86</v>
       </c>
       <c r="BM8" t="s">
         <v>207</v>
@@ -3433,10 +3433,10 @@
         <v>257950</v>
       </c>
       <c r="BO8">
-        <v>180521.79</v>
+        <v>205639.5</v>
       </c>
       <c r="BP8">
-        <v>108922.93</v>
+        <v>161038.47</v>
       </c>
       <c r="BQ8" t="s">
         <v>207</v>
@@ -3445,10 +3445,10 @@
         <v>257950</v>
       </c>
       <c r="BS8">
-        <v>227609.73</v>
+        <v>172295.15</v>
       </c>
       <c r="BT8">
-        <v>152434.41</v>
+        <v>142857.24</v>
       </c>
       <c r="BU8" t="s">
         <v>207</v>
@@ -3457,10 +3457,10 @@
         <v>257950</v>
       </c>
       <c r="BW8">
-        <v>206010.56</v>
+        <v>209044.89</v>
       </c>
       <c r="BX8">
-        <v>158684.36</v>
+        <v>166712.72</v>
       </c>
       <c r="BY8" t="s">
         <v>207</v>
@@ -3469,10 +3469,10 @@
         <v>257950</v>
       </c>
       <c r="CA8">
-        <v>180548.03</v>
+        <v>189257.21</v>
       </c>
       <c r="CB8">
-        <v>155946.38</v>
+        <v>155063.31</v>
       </c>
       <c r="CC8" t="s">
         <v>207</v>
@@ -3597,10 +3597,10 @@
         <v>400000</v>
       </c>
       <c r="AQ9">
-        <v>319398.77</v>
+        <v>282877.55</v>
       </c>
       <c r="AR9">
-        <v>219463.13</v>
+        <v>223661.81</v>
       </c>
       <c r="AS9" t="s">
         <v>207</v>
@@ -3609,10 +3609,10 @@
         <v>400000</v>
       </c>
       <c r="AU9">
-        <v>318128.76</v>
+        <v>373813.49</v>
       </c>
       <c r="AV9">
-        <v>226107.85</v>
+        <v>335197.35</v>
       </c>
       <c r="AW9" t="s">
         <v>207</v>
@@ -3621,10 +3621,10 @@
         <v>400000</v>
       </c>
       <c r="AY9">
-        <v>345683.37</v>
+        <v>291066.9</v>
       </c>
       <c r="AZ9">
-        <v>287214.04</v>
+        <v>223507.67</v>
       </c>
       <c r="BA9" t="s">
         <v>207</v>
@@ -3633,10 +3633,10 @@
         <v>400000</v>
       </c>
       <c r="BC9">
-        <v>296742.38</v>
+        <v>305455.2</v>
       </c>
       <c r="BD9">
-        <v>179490.89</v>
+        <v>211791.21</v>
       </c>
       <c r="BE9" t="s">
         <v>207</v>
@@ -3645,10 +3645,10 @@
         <v>400000</v>
       </c>
       <c r="BG9">
-        <v>266949.66</v>
+        <v>360998.4</v>
       </c>
       <c r="BH9">
-        <v>184853.9</v>
+        <v>255611.2</v>
       </c>
       <c r="BI9" t="s">
         <v>207</v>
@@ -3657,10 +3657,10 @@
         <v>400000</v>
       </c>
       <c r="BK9">
-        <v>277025.13</v>
+        <v>336659.43</v>
       </c>
       <c r="BL9">
-        <v>198651.82</v>
+        <v>246750.84</v>
       </c>
       <c r="BM9" t="s">
         <v>207</v>
@@ -3669,10 +3669,10 @@
         <v>400000</v>
       </c>
       <c r="BO9">
-        <v>284935.53</v>
+        <v>300920.41</v>
       </c>
       <c r="BP9">
-        <v>267889.84</v>
+        <v>265911.22</v>
       </c>
       <c r="BQ9" t="s">
         <v>207</v>
@@ -3681,10 +3681,10 @@
         <v>400000</v>
       </c>
       <c r="BS9">
-        <v>318160.65</v>
+        <v>332586.47</v>
       </c>
       <c r="BT9">
-        <v>292489.87</v>
+        <v>285832.71</v>
       </c>
       <c r="BU9" t="s">
         <v>207</v>
@@ -3693,10 +3693,10 @@
         <v>400000</v>
       </c>
       <c r="BW9">
-        <v>268388.37</v>
+        <v>284078.27</v>
       </c>
       <c r="BX9">
-        <v>243269.77</v>
+        <v>241497.67</v>
       </c>
       <c r="BY9" t="s">
         <v>207</v>
@@ -3705,10 +3705,10 @@
         <v>400000</v>
       </c>
       <c r="CA9">
-        <v>360056.42</v>
+        <v>354001.52</v>
       </c>
       <c r="CB9">
-        <v>290402.24</v>
+        <v>228567.38</v>
       </c>
       <c r="CC9" t="s">
         <v>207</v>
@@ -3833,10 +3833,10 @@
         <v>125000</v>
       </c>
       <c r="AQ10">
-        <v>118008.31</v>
+        <v>112008.01</v>
       </c>
       <c r="AR10">
-        <v>105760.64</v>
+        <v>83417.67999999999</v>
       </c>
       <c r="AS10" t="s">
         <v>207</v>
@@ -3845,10 +3845,10 @@
         <v>125000</v>
       </c>
       <c r="AU10">
-        <v>87844.23</v>
+        <v>103032.94</v>
       </c>
       <c r="AV10">
-        <v>72988.03999999999</v>
+        <v>83324.3</v>
       </c>
       <c r="AW10" t="s">
         <v>207</v>
@@ -3857,10 +3857,10 @@
         <v>125000</v>
       </c>
       <c r="AY10">
-        <v>92487.02</v>
+        <v>90368.33</v>
       </c>
       <c r="AZ10">
-        <v>57791.42</v>
+        <v>74219.69</v>
       </c>
       <c r="BA10" t="s">
         <v>207</v>
@@ -3869,10 +3869,10 @@
         <v>125000</v>
       </c>
       <c r="BC10">
-        <v>113906.74</v>
+        <v>102461.43</v>
       </c>
       <c r="BD10">
-        <v>79039.11</v>
+        <v>85752.92</v>
       </c>
       <c r="BE10" t="s">
         <v>207</v>
@@ -3881,10 +3881,10 @@
         <v>125000</v>
       </c>
       <c r="BG10">
-        <v>94594.67</v>
+        <v>109316.8</v>
       </c>
       <c r="BH10">
-        <v>67172.49000000001</v>
+        <v>76900.27</v>
       </c>
       <c r="BI10" t="s">
         <v>207</v>
@@ -3893,10 +3893,10 @@
         <v>125000</v>
       </c>
       <c r="BK10">
-        <v>116677.63</v>
+        <v>98617.53999999999</v>
       </c>
       <c r="BL10">
-        <v>72645.67999999999</v>
+        <v>56365.01</v>
       </c>
       <c r="BM10" t="s">
         <v>207</v>
@@ -3905,10 +3905,10 @@
         <v>75000</v>
       </c>
       <c r="BO10">
-        <v>68151.72</v>
+        <v>56788.25</v>
       </c>
       <c r="BP10">
-        <v>42092.18</v>
+        <v>43888.18</v>
       </c>
       <c r="BQ10" t="s">
         <v>207</v>
@@ -3917,10 +3917,10 @@
         <v>75000</v>
       </c>
       <c r="BS10">
-        <v>52770.07</v>
+        <v>62459.84</v>
       </c>
       <c r="BT10">
-        <v>33165.41</v>
+        <v>58164.08</v>
       </c>
       <c r="BU10" t="s">
         <v>207</v>
@@ -3929,10 +3929,10 @@
         <v>75000</v>
       </c>
       <c r="BW10">
-        <v>65501.79</v>
+        <v>50245.75</v>
       </c>
       <c r="BX10">
-        <v>42525.3</v>
+        <v>35639.39</v>
       </c>
       <c r="BY10" t="s">
         <v>207</v>
@@ -3941,10 +3941,10 @@
         <v>75000</v>
       </c>
       <c r="CA10">
-        <v>54616.23</v>
+        <v>52520.18</v>
       </c>
       <c r="CB10">
-        <v>41199.13</v>
+        <v>38620.35</v>
       </c>
       <c r="CC10" t="s">
         <v>207</v>
@@ -4075,10 +4075,10 @@
         <v>380000</v>
       </c>
       <c r="AQ11">
-        <v>230730.28</v>
+        <v>323899.51</v>
       </c>
       <c r="AR11">
-        <v>172537.42</v>
+        <v>267181.15</v>
       </c>
       <c r="AS11" t="s">
         <v>207</v>
@@ -4087,10 +4087,10 @@
         <v>380000</v>
       </c>
       <c r="AU11">
-        <v>305715.75</v>
+        <v>344304.9</v>
       </c>
       <c r="AV11">
-        <v>203528.7</v>
+        <v>305750.48</v>
       </c>
       <c r="AW11" t="s">
         <v>207</v>
@@ -4099,10 +4099,10 @@
         <v>380000</v>
       </c>
       <c r="AY11">
-        <v>350573.73</v>
+        <v>282429.12</v>
       </c>
       <c r="AZ11">
-        <v>211316.66</v>
+        <v>238534.71</v>
       </c>
       <c r="BA11" t="s">
         <v>207</v>
@@ -4111,10 +4111,10 @@
         <v>380000</v>
       </c>
       <c r="BC11">
-        <v>234854.56</v>
+        <v>320322.88</v>
       </c>
       <c r="BD11">
-        <v>175800.14</v>
+        <v>281143.37</v>
       </c>
       <c r="BE11" t="s">
         <v>207</v>
@@ -4123,10 +4123,10 @@
         <v>400000</v>
       </c>
       <c r="BG11">
-        <v>258079.94</v>
+        <v>380000</v>
       </c>
       <c r="BH11">
-        <v>198415.21</v>
+        <v>287002.81</v>
       </c>
       <c r="BI11" t="s">
         <v>207</v>
@@ -4135,10 +4135,10 @@
         <v>400000</v>
       </c>
       <c r="BK11">
-        <v>349285.72</v>
+        <v>349761.09</v>
       </c>
       <c r="BL11">
-        <v>297354.24</v>
+        <v>302681</v>
       </c>
       <c r="BM11" t="s">
         <v>207</v>
@@ -4147,10 +4147,10 @@
         <v>400000</v>
       </c>
       <c r="BO11">
-        <v>310274.18</v>
+        <v>305377.72</v>
       </c>
       <c r="BP11">
-        <v>194744.66</v>
+        <v>211735.41</v>
       </c>
       <c r="BQ11" t="s">
         <v>207</v>
@@ -4159,10 +4159,10 @@
         <v>400000</v>
       </c>
       <c r="BS11">
-        <v>317362.88</v>
+        <v>367859.68</v>
       </c>
       <c r="BT11">
-        <v>209559.69</v>
+        <v>288246.01</v>
       </c>
       <c r="BU11" t="s">
         <v>207</v>
@@ -4171,10 +4171,10 @@
         <v>400000</v>
       </c>
       <c r="BW11">
-        <v>291434.38</v>
+        <v>311463.74</v>
       </c>
       <c r="BX11">
-        <v>230159.2</v>
+        <v>273034.84</v>
       </c>
       <c r="BY11" t="s">
         <v>207</v>
@@ -4183,10 +4183,10 @@
         <v>400000</v>
       </c>
       <c r="CA11">
-        <v>350072.04</v>
+        <v>284039.68</v>
       </c>
       <c r="CB11">
-        <v>245982.01</v>
+        <v>184825.85</v>
       </c>
       <c r="CC11" t="s">
         <v>207</v>
@@ -4317,10 +4317,10 @@
         <v>300000</v>
       </c>
       <c r="AQ12">
-        <v>217692.05</v>
+        <v>257086.44</v>
       </c>
       <c r="AR12">
-        <v>197878.43</v>
+        <v>209322.01</v>
       </c>
       <c r="AS12" t="s">
         <v>207</v>
@@ -4329,10 +4329,10 @@
         <v>300000</v>
       </c>
       <c r="AU12">
-        <v>223041.51</v>
+        <v>267416.52</v>
       </c>
       <c r="AV12">
-        <v>186610.69</v>
+        <v>220133.16</v>
       </c>
       <c r="AW12" t="s">
         <v>207</v>
@@ -4341,10 +4341,10 @@
         <v>300000</v>
       </c>
       <c r="AY12">
-        <v>257132.38</v>
+        <v>248666.99</v>
       </c>
       <c r="AZ12">
-        <v>239362.32</v>
+        <v>205069.37</v>
       </c>
       <c r="BA12" t="s">
         <v>207</v>
@@ -4353,10 +4353,10 @@
         <v>300000</v>
       </c>
       <c r="BC12">
-        <v>265637.78</v>
+        <v>223553.89</v>
       </c>
       <c r="BD12">
-        <v>196325.83</v>
+        <v>201797.12</v>
       </c>
       <c r="BE12" t="s">
         <v>207</v>
@@ -4365,10 +4365,10 @@
         <v>2500000</v>
       </c>
       <c r="BG12">
-        <v>1947437.73</v>
+        <v>2230887.2</v>
       </c>
       <c r="BH12">
-        <v>1276637.11</v>
+        <v>1719714.46</v>
       </c>
       <c r="BI12" t="s">
         <v>207</v>
@@ -4377,10 +4377,10 @@
         <v>2500000</v>
       </c>
       <c r="BK12">
-        <v>2289152.37</v>
+        <v>2151997.53</v>
       </c>
       <c r="BL12">
-        <v>1446051.06</v>
+        <v>1724473.53</v>
       </c>
       <c r="BM12" t="s">
         <v>207</v>
@@ -4389,10 +4389,10 @@
         <v>2500000</v>
       </c>
       <c r="BO12">
-        <v>2190402.49</v>
+        <v>1843102.9</v>
       </c>
       <c r="BP12">
-        <v>1599903.82</v>
+        <v>1375006.35</v>
       </c>
       <c r="BQ12" t="s">
         <v>207</v>
@@ -4401,10 +4401,10 @@
         <v>2500000</v>
       </c>
       <c r="BS12">
-        <v>2137301.61</v>
+        <v>2375000</v>
       </c>
       <c r="BT12">
-        <v>1724348.02</v>
+        <v>1780638.06</v>
       </c>
       <c r="BU12" t="s">
         <v>207</v>
@@ -4413,10 +4413,10 @@
         <v>2500000</v>
       </c>
       <c r="BW12">
-        <v>1897546.29</v>
+        <v>1948738.87</v>
       </c>
       <c r="BX12">
-        <v>1402720.38</v>
+        <v>1576993.12</v>
       </c>
       <c r="BY12" t="s">
         <v>207</v>
@@ -4425,10 +4425,10 @@
         <v>2500000</v>
       </c>
       <c r="CA12">
-        <v>1792654.54</v>
+        <v>2004445.2</v>
       </c>
       <c r="CB12">
-        <v>1176473.49</v>
+        <v>1504552.72</v>
       </c>
       <c r="CC12" t="s">
         <v>207</v>
@@ -4699,10 +4699,10 @@
         <v>624471.5</v>
       </c>
       <c r="AQ14">
-        <v>432492.37</v>
+        <v>511468.66</v>
       </c>
       <c r="AR14">
-        <v>410633.22</v>
+        <v>485895.23</v>
       </c>
       <c r="AS14" t="s">
         <v>207</v>
@@ -4711,10 +4711,10 @@
         <v>624471.5</v>
       </c>
       <c r="AU14">
-        <v>439739.81</v>
+        <v>478853.89</v>
       </c>
       <c r="AV14">
-        <v>342226.1</v>
+        <v>370011.85</v>
       </c>
       <c r="AW14" t="s">
         <v>207</v>
@@ -4723,10 +4723,10 @@
         <v>624471.5</v>
       </c>
       <c r="AY14">
-        <v>441710.47</v>
+        <v>437279.64</v>
       </c>
       <c r="AZ14">
-        <v>276689.57</v>
+        <v>289133.33</v>
       </c>
       <c r="BA14" t="s">
         <v>207</v>
@@ -4735,10 +4735,10 @@
         <v>1000000</v>
       </c>
       <c r="BC14">
-        <v>691939.0699999999</v>
+        <v>674891.65</v>
       </c>
       <c r="BD14">
-        <v>547127.1800000001</v>
+        <v>483573.26</v>
       </c>
       <c r="BE14" t="s">
         <v>207</v>
@@ -4747,10 +4747,10 @@
         <v>100000</v>
       </c>
       <c r="BG14">
-        <v>66100.97</v>
+        <v>83217.83</v>
       </c>
       <c r="BH14">
-        <v>40339.54</v>
+        <v>62800.14</v>
       </c>
       <c r="BI14" t="s">
         <v>207</v>
@@ -4759,10 +4759,10 @@
         <v>800000</v>
       </c>
       <c r="BK14">
-        <v>751724.3100000001</v>
+        <v>621604.95</v>
       </c>
       <c r="BL14">
-        <v>458621.95</v>
+        <v>449865.06</v>
       </c>
       <c r="BM14" t="s">
         <v>207</v>
@@ -4771,10 +4771,10 @@
         <v>400000</v>
       </c>
       <c r="BO14">
-        <v>367672.31</v>
+        <v>275158.18</v>
       </c>
       <c r="BP14">
-        <v>227610.62</v>
+        <v>208980.09</v>
       </c>
       <c r="BQ14" t="s">
         <v>207</v>
@@ -4783,10 +4783,10 @@
         <v>701856</v>
       </c>
       <c r="BS14">
-        <v>506200.51</v>
+        <v>521738.5</v>
       </c>
       <c r="BT14">
-        <v>428741.01</v>
+        <v>447255.29</v>
       </c>
       <c r="BU14" t="s">
         <v>207</v>
@@ -4795,10 +4795,10 @@
         <v>701856</v>
       </c>
       <c r="BW14">
-        <v>597694.37</v>
+        <v>503658.13</v>
       </c>
       <c r="BX14">
-        <v>370018.38</v>
+        <v>421884.66</v>
       </c>
       <c r="BY14" t="s">
         <v>207</v>
@@ -4807,10 +4807,10 @@
         <v>701856</v>
       </c>
       <c r="CA14">
-        <v>519140.66</v>
+        <v>558117.42</v>
       </c>
       <c r="CB14">
-        <v>327204.13</v>
+        <v>398667.12</v>
       </c>
       <c r="CC14" t="s">
         <v>207</v>
@@ -5236,10 +5236,10 @@
         <v>257950</v>
       </c>
       <c r="AQ17">
-        <v>172833.69</v>
+        <v>200524.39</v>
       </c>
       <c r="AR17">
-        <v>118453.23</v>
+        <v>149587.89</v>
       </c>
       <c r="AS17" t="s">
         <v>207</v>
@@ -5248,10 +5248,10 @@
         <v>257950</v>
       </c>
       <c r="AU17">
-        <v>177781.14</v>
+        <v>180369.1</v>
       </c>
       <c r="AV17">
-        <v>111128.95</v>
+        <v>143205.92</v>
       </c>
       <c r="AW17" t="s">
         <v>207</v>
@@ -5260,10 +5260,10 @@
         <v>257950</v>
       </c>
       <c r="AY17">
-        <v>177299.55</v>
+        <v>177185.24</v>
       </c>
       <c r="AZ17">
-        <v>125828.85</v>
+        <v>144832.16</v>
       </c>
       <c r="BA17" t="s">
         <v>207</v>
@@ -5272,10 +5272,10 @@
         <v>257950</v>
       </c>
       <c r="BC17">
-        <v>206626.51</v>
+        <v>230936.8</v>
       </c>
       <c r="BD17">
-        <v>178879.96</v>
+        <v>208246.92</v>
       </c>
       <c r="BE17" t="s">
         <v>392</v>
@@ -5284,10 +5284,10 @@
         <v>257950</v>
       </c>
       <c r="BG17">
-        <v>157510.13</v>
+        <v>244951.63</v>
       </c>
       <c r="BH17">
-        <v>114276.89</v>
+        <v>184837.65</v>
       </c>
       <c r="BI17" t="s">
         <v>393</v>
@@ -5296,10 +5296,10 @@
         <v>50000</v>
       </c>
       <c r="BK17">
-        <v>35909.81</v>
+        <v>38623.13</v>
       </c>
       <c r="BL17">
-        <v>22612.02</v>
+        <v>32218.88</v>
       </c>
       <c r="BM17" t="s">
         <v>207</v>
@@ -5308,10 +5308,10 @@
         <v>50000</v>
       </c>
       <c r="BO17">
-        <v>42844.94</v>
+        <v>40282.27</v>
       </c>
       <c r="BP17">
-        <v>31695.74</v>
+        <v>30404.12</v>
       </c>
       <c r="BQ17" t="s">
         <v>207</v>
@@ -5320,10 +5320,10 @@
         <v>50000</v>
       </c>
       <c r="BS17">
-        <v>34174.24</v>
+        <v>35228.58</v>
       </c>
       <c r="BT17">
-        <v>31473.2</v>
+        <v>25230.62</v>
       </c>
       <c r="BU17" t="s">
         <v>207</v>
@@ -5332,10 +5332,10 @@
         <v>50000</v>
       </c>
       <c r="BW17">
-        <v>38249.68</v>
+        <v>44105.95</v>
       </c>
       <c r="BX17">
-        <v>26459.74</v>
+        <v>34723.82</v>
       </c>
       <c r="BY17" t="s">
         <v>207</v>
@@ -5344,10 +5344,10 @@
         <v>50000</v>
       </c>
       <c r="CA17">
-        <v>35618.1</v>
+        <v>32899.53</v>
       </c>
       <c r="CB17">
-        <v>26026.78</v>
+        <v>25513.37</v>
       </c>
       <c r="CC17" t="s">
         <v>207</v>
@@ -5469,10 +5469,10 @@
         <v>20000000</v>
       </c>
       <c r="AQ18">
-        <v>16662571.36</v>
+        <v>17490485.08</v>
       </c>
       <c r="AR18">
-        <v>10936810.39</v>
+        <v>11966556.72</v>
       </c>
       <c r="AS18" t="s">
         <v>207</v>
@@ -5481,10 +5481,10 @@
         <v>20000000</v>
       </c>
       <c r="AU18">
-        <v>14717720.39</v>
+        <v>17321746.48</v>
       </c>
       <c r="AV18">
-        <v>12601710.23</v>
+        <v>16455659.15</v>
       </c>
       <c r="AW18" t="s">
         <v>207</v>
@@ -5493,10 +5493,10 @@
         <v>20000000</v>
       </c>
       <c r="AY18">
-        <v>15159241.98</v>
+        <v>16973816.71</v>
       </c>
       <c r="AZ18">
-        <v>11882324.46</v>
+        <v>13629612.4</v>
       </c>
       <c r="BA18" t="s">
         <v>207</v>
@@ -5505,10 +5505,10 @@
         <v>20000000</v>
       </c>
       <c r="BC18">
-        <v>17598274.9</v>
+        <v>13778138.16</v>
       </c>
       <c r="BD18">
-        <v>14908778.27</v>
+        <v>11205902.09</v>
       </c>
       <c r="BE18" t="s">
         <v>207</v>
@@ -5517,10 +5517,10 @@
         <v>20000000</v>
       </c>
       <c r="BG18">
-        <v>13026566.37</v>
+        <v>13131331.74</v>
       </c>
       <c r="BH18">
-        <v>12006352.73</v>
+        <v>11461289.04</v>
       </c>
       <c r="BI18" t="s">
         <v>207</v>
@@ -5529,10 +5529,10 @@
         <v>20000000</v>
       </c>
       <c r="BK18">
-        <v>12358233.36</v>
+        <v>14203371.22</v>
       </c>
       <c r="BL18">
-        <v>11587726.87</v>
+        <v>12182357.42</v>
       </c>
       <c r="BM18" t="s">
         <v>394</v>
@@ -5541,10 +5541,10 @@
         <v>1800000</v>
       </c>
       <c r="BO18">
-        <v>1248982.64</v>
+        <v>1546560.45</v>
       </c>
       <c r="BP18">
-        <v>975589.33</v>
+        <v>1082280.51</v>
       </c>
       <c r="BQ18" t="s">
         <v>207</v>
@@ -5553,10 +5553,10 @@
         <v>64000</v>
       </c>
       <c r="BS18">
-        <v>46170.29</v>
+        <v>53565.79</v>
       </c>
       <c r="BT18">
-        <v>40031.43</v>
+        <v>44894.84</v>
       </c>
       <c r="BU18" t="s">
         <v>207</v>
@@ -5565,10 +5565,10 @@
         <v>64000</v>
       </c>
       <c r="BW18">
-        <v>40295.45</v>
+        <v>48896.39</v>
       </c>
       <c r="BX18">
-        <v>30733.76</v>
+        <v>46451.57</v>
       </c>
       <c r="BY18" t="s">
         <v>207</v>
@@ -5577,10 +5577,10 @@
         <v>64000</v>
       </c>
       <c r="CA18">
-        <v>44122.73</v>
+        <v>44481.78</v>
       </c>
       <c r="CB18">
-        <v>28038.91</v>
+        <v>36747.61</v>
       </c>
       <c r="CC18" t="s">
         <v>207</v>
@@ -5699,10 +5699,10 @@
         <v>454000</v>
       </c>
       <c r="AQ19">
-        <v>413630.67</v>
+        <v>306155.76</v>
       </c>
       <c r="AR19">
-        <v>264092.93</v>
+        <v>239560.95</v>
       </c>
       <c r="AS19" t="s">
         <v>207</v>
@@ -5711,10 +5711,10 @@
         <v>454000</v>
       </c>
       <c r="AU19">
-        <v>306380.83</v>
+        <v>341421.76</v>
       </c>
       <c r="AV19">
-        <v>264736.38</v>
+        <v>324215.08</v>
       </c>
       <c r="AW19" t="s">
         <v>207</v>
@@ -5723,10 +5723,10 @@
         <v>454000</v>
       </c>
       <c r="AY19">
-        <v>387654.98</v>
+        <v>337487.63</v>
       </c>
       <c r="AZ19">
-        <v>354828.48</v>
+        <v>261898.2</v>
       </c>
       <c r="BA19" t="s">
         <v>207</v>
@@ -5735,10 +5735,10 @@
         <v>454000</v>
       </c>
       <c r="BC19">
-        <v>273121.19</v>
+        <v>322339.24</v>
       </c>
       <c r="BD19">
-        <v>164071.4</v>
+        <v>204204.7</v>
       </c>
       <c r="BE19" t="s">
         <v>207</v>
@@ -5747,10 +5747,10 @@
         <v>136000</v>
       </c>
       <c r="BG19">
-        <v>91092.11</v>
+        <v>113985.55</v>
       </c>
       <c r="BH19">
-        <v>56758.27</v>
+        <v>97635.2</v>
       </c>
       <c r="BI19" t="s">
         <v>207</v>
@@ -5759,10 +5759,10 @@
         <v>136000</v>
       </c>
       <c r="BK19">
-        <v>115856.21</v>
+        <v>109835.23</v>
       </c>
       <c r="BL19">
-        <v>90019.28</v>
+        <v>87355.09</v>
       </c>
       <c r="BM19" t="s">
         <v>207</v>
@@ -5771,10 +5771,10 @@
         <v>136000</v>
       </c>
       <c r="BO19">
-        <v>104709.17</v>
+        <v>129200</v>
       </c>
       <c r="BP19">
-        <v>75608.8</v>
+        <v>112272.57</v>
       </c>
       <c r="BQ19" t="s">
         <v>207</v>
@@ -5783,10 +5783,10 @@
         <v>136000</v>
       </c>
       <c r="BS19">
-        <v>93905.52</v>
+        <v>109151.16</v>
       </c>
       <c r="BT19">
-        <v>79837.42999999999</v>
+        <v>99123.52</v>
       </c>
       <c r="BU19" t="s">
         <v>207</v>
@@ -5795,10 +5795,10 @@
         <v>136000</v>
       </c>
       <c r="BW19">
-        <v>89757.14999999999</v>
+        <v>92227.44</v>
       </c>
       <c r="BX19">
-        <v>61966.41</v>
+        <v>70515.83</v>
       </c>
       <c r="BY19" t="s">
         <v>207</v>
@@ -5807,10 +5807,10 @@
         <v>136000</v>
       </c>
       <c r="CA19">
-        <v>106431.36</v>
+        <v>101749.5</v>
       </c>
       <c r="CB19">
-        <v>96083.92999999999</v>
+        <v>70743.06</v>
       </c>
       <c r="CC19" t="s">
         <v>207</v>
@@ -5941,10 +5941,10 @@
         <v>6737</v>
       </c>
       <c r="AQ20">
-        <v>6360.81</v>
+        <v>4605.7</v>
       </c>
       <c r="AR20">
-        <v>5763.69</v>
+        <v>4232.6</v>
       </c>
       <c r="AS20" t="s">
         <v>207</v>
@@ -5953,10 +5953,10 @@
         <v>6737</v>
       </c>
       <c r="AU20">
-        <v>5620.83</v>
+        <v>5502.43</v>
       </c>
       <c r="AV20">
-        <v>4370.64</v>
+        <v>4816.81</v>
       </c>
       <c r="AW20" t="s">
         <v>207</v>
@@ -5965,10 +5965,10 @@
         <v>6737</v>
       </c>
       <c r="AY20">
-        <v>5138.16</v>
+        <v>4978.52</v>
       </c>
       <c r="AZ20">
-        <v>4425.06</v>
+        <v>3603.48</v>
       </c>
       <c r="BA20" t="s">
         <v>207</v>
@@ -5977,10 +5977,10 @@
         <v>260002</v>
       </c>
       <c r="BC20">
-        <v>244949.83</v>
+        <v>192705.6</v>
       </c>
       <c r="BD20">
-        <v>169620.85</v>
+        <v>142939.24</v>
       </c>
       <c r="BE20" t="s">
         <v>207</v>
@@ -5989,10 +5989,10 @@
         <v>132747</v>
       </c>
       <c r="BG20">
-        <v>98426.52</v>
+        <v>88420.69</v>
       </c>
       <c r="BH20">
-        <v>65686.23</v>
+        <v>80947.03</v>
       </c>
       <c r="BI20" t="s">
         <v>207</v>
@@ -6001,10 +6001,10 @@
         <v>66373.5</v>
       </c>
       <c r="BK20">
-        <v>42337.41</v>
+        <v>57331.17</v>
       </c>
       <c r="BL20">
-        <v>33197.11</v>
+        <v>51248.17</v>
       </c>
       <c r="BM20" t="s">
         <v>207</v>
@@ -6013,10 +6013,10 @@
         <v>1139992.857142857</v>
       </c>
       <c r="BO20">
-        <v>942887.85</v>
+        <v>824531.47</v>
       </c>
       <c r="BP20">
-        <v>783974.1800000001</v>
+        <v>714705.77</v>
       </c>
       <c r="BQ20" t="s">
         <v>207</v>
@@ -6025,10 +6025,10 @@
         <v>701856</v>
       </c>
       <c r="BS20">
-        <v>428858.79</v>
+        <v>498540.61</v>
       </c>
       <c r="BT20">
-        <v>301672.68</v>
+        <v>426232.38</v>
       </c>
       <c r="BU20" t="s">
         <v>207</v>
@@ -6037,10 +6037,10 @@
         <v>701856</v>
       </c>
       <c r="BW20">
-        <v>545660.09</v>
+        <v>496363.63</v>
       </c>
       <c r="BX20">
-        <v>513356</v>
+        <v>378982.85</v>
       </c>
       <c r="BY20" t="s">
         <v>207</v>
@@ -6049,10 +6049,10 @@
         <v>701856</v>
       </c>
       <c r="CA20">
-        <v>503564.6</v>
+        <v>616381.09</v>
       </c>
       <c r="CB20">
-        <v>343874.47</v>
+        <v>449980.91</v>
       </c>
       <c r="CC20" t="s">
         <v>207</v>
@@ -6171,10 +6171,10 @@
         <v>624471.5</v>
       </c>
       <c r="AQ21">
-        <v>558202.45</v>
+        <v>419002.71</v>
       </c>
       <c r="AR21">
-        <v>414479.87</v>
+        <v>376685.77</v>
       </c>
       <c r="AS21" t="s">
         <v>207</v>
@@ -6183,10 +6183,10 @@
         <v>624471.5</v>
       </c>
       <c r="AU21">
-        <v>587009.13</v>
+        <v>505782.32</v>
       </c>
       <c r="AV21">
-        <v>533705.8199999999</v>
+        <v>476206.01</v>
       </c>
       <c r="AW21" t="s">
         <v>207</v>
@@ -6195,10 +6195,10 @@
         <v>624471.5</v>
       </c>
       <c r="AY21">
-        <v>402484.14</v>
+        <v>487734.89</v>
       </c>
       <c r="AZ21">
-        <v>287805.99</v>
+        <v>416001.44</v>
       </c>
       <c r="BA21" t="s">
         <v>207</v>
@@ -6207,10 +6207,10 @@
         <v>661013.4285714285</v>
       </c>
       <c r="BC21">
-        <v>461931.15</v>
+        <v>507261.32</v>
       </c>
       <c r="BD21">
-        <v>395544.43</v>
+        <v>368498.37</v>
       </c>
       <c r="BE21" t="s">
         <v>207</v>
@@ -6219,10 +6219,10 @@
         <v>1000000</v>
       </c>
       <c r="BG21">
-        <v>621619.27</v>
+        <v>752180.28</v>
       </c>
       <c r="BH21">
-        <v>536740.03</v>
+        <v>671515.11</v>
       </c>
       <c r="BI21" t="s">
         <v>207</v>
@@ -6231,10 +6231,10 @@
         <v>319048</v>
       </c>
       <c r="BK21">
-        <v>227168.01</v>
+        <v>240945.93</v>
       </c>
       <c r="BL21">
-        <v>157894.39</v>
+        <v>202759.74</v>
       </c>
       <c r="BM21" t="s">
         <v>207</v>
@@ -6243,10 +6243,10 @@
         <v>100000</v>
       </c>
       <c r="BO21">
-        <v>62699.84</v>
+        <v>88956.81</v>
       </c>
       <c r="BP21">
-        <v>50686.25</v>
+        <v>71985.62</v>
       </c>
       <c r="BQ21" t="s">
         <v>207</v>
@@ -6255,10 +6255,10 @@
         <v>100000</v>
       </c>
       <c r="BS21">
-        <v>63251.16</v>
+        <v>67802.88</v>
       </c>
       <c r="BT21">
-        <v>47939.77</v>
+        <v>62350.06</v>
       </c>
       <c r="BU21" t="s">
         <v>207</v>
@@ -6267,10 +6267,10 @@
         <v>100000</v>
       </c>
       <c r="BW21">
-        <v>83948.92999999999</v>
+        <v>79521.82000000001</v>
       </c>
       <c r="BX21">
-        <v>58585.24</v>
+        <v>58749.12</v>
       </c>
       <c r="BY21" t="s">
         <v>207</v>
@@ -6279,10 +6279,10 @@
         <v>100000</v>
       </c>
       <c r="CA21">
-        <v>69976.34</v>
+        <v>74948.89</v>
       </c>
       <c r="CB21">
-        <v>63094.9</v>
+        <v>52598.04</v>
       </c>
       <c r="CC21" t="s">
         <v>207</v>
@@ -6404,10 +6404,10 @@
         <v>298492</v>
       </c>
       <c r="AQ22">
-        <v>232756.47</v>
+        <v>208508.12</v>
       </c>
       <c r="AR22">
-        <v>176830.97</v>
+        <v>182395.69</v>
       </c>
       <c r="AS22" t="s">
         <v>207</v>
@@ -6416,10 +6416,10 @@
         <v>298492</v>
       </c>
       <c r="AU22">
-        <v>237931.46</v>
+        <v>241791.89</v>
       </c>
       <c r="AV22">
-        <v>189208.56</v>
+        <v>215531.57</v>
       </c>
       <c r="AW22" t="s">
         <v>207</v>
@@ -6428,10 +6428,10 @@
         <v>298492</v>
       </c>
       <c r="AY22">
-        <v>191431.2</v>
+        <v>257538.24</v>
       </c>
       <c r="AZ22">
-        <v>161206.02</v>
+        <v>217757.17</v>
       </c>
       <c r="BA22" t="s">
         <v>207</v>
@@ -6440,10 +6440,10 @@
         <v>298492</v>
       </c>
       <c r="BC22">
-        <v>239854.74</v>
+        <v>209315.4</v>
       </c>
       <c r="BD22">
-        <v>182828.69</v>
+        <v>158691.5</v>
       </c>
       <c r="BE22" t="s">
         <v>207</v>
@@ -6452,10 +6452,10 @@
         <v>196239</v>
       </c>
       <c r="BG22">
-        <v>156006.96</v>
+        <v>151708.08</v>
       </c>
       <c r="BH22">
-        <v>96717.10000000001</v>
+        <v>132277.06</v>
       </c>
       <c r="BI22" t="s">
         <v>207</v>
@@ -6464,10 +6464,10 @@
         <v>8141340</v>
       </c>
       <c r="BK22">
-        <v>6646070.9</v>
+        <v>7395445.24</v>
       </c>
       <c r="BL22">
-        <v>5827433.32</v>
+        <v>5885589.89</v>
       </c>
       <c r="BM22" t="s">
         <v>207</v>
@@ -6476,10 +6476,10 @@
         <v>4070670</v>
       </c>
       <c r="BO22">
-        <v>3455010.86</v>
+        <v>3598561.3</v>
       </c>
       <c r="BP22">
-        <v>2164774.92</v>
+        <v>2994959.52</v>
       </c>
       <c r="BQ22" t="s">
         <v>207</v>
@@ -6488,10 +6488,10 @@
         <v>701856</v>
       </c>
       <c r="BS22">
-        <v>527997.7</v>
+        <v>543112.59</v>
       </c>
       <c r="BT22">
-        <v>383143.04</v>
+        <v>487848.02</v>
       </c>
       <c r="BU22" t="s">
         <v>207</v>
@@ -6500,10 +6500,10 @@
         <v>701856</v>
       </c>
       <c r="BW22">
-        <v>515051.49</v>
+        <v>497129.52</v>
       </c>
       <c r="BX22">
-        <v>382243.71</v>
+        <v>380617.49</v>
       </c>
       <c r="BY22" t="s">
         <v>207</v>
@@ -6512,10 +6512,10 @@
         <v>701856</v>
       </c>
       <c r="CA22">
-        <v>550769.3199999999</v>
+        <v>582301.4399999999</v>
       </c>
       <c r="CB22">
-        <v>355673.95</v>
+        <v>447009.87</v>
       </c>
       <c r="CC22" t="s">
         <v>207</v>
@@ -6643,10 +6643,10 @@
         <v>11100000</v>
       </c>
       <c r="AQ23">
-        <v>10496153.62</v>
+        <v>7761741.08</v>
       </c>
       <c r="AR23">
-        <v>6425630.62</v>
+        <v>6627216.71</v>
       </c>
       <c r="AS23" t="s">
         <v>207</v>
@@ -6655,10 +6655,10 @@
         <v>11100000</v>
       </c>
       <c r="AU23">
-        <v>7739141.51</v>
+        <v>8986484.26</v>
       </c>
       <c r="AV23">
-        <v>7136025.93</v>
+        <v>5815768.08</v>
       </c>
       <c r="AW23" t="s">
         <v>207</v>
@@ -6667,10 +6667,10 @@
         <v>11100000</v>
       </c>
       <c r="AY23">
-        <v>10186202.24</v>
+        <v>7905590.48</v>
       </c>
       <c r="AZ23">
-        <v>9281365.43</v>
+        <v>4949563.66</v>
       </c>
       <c r="BA23" t="s">
         <v>207</v>
@@ -6679,10 +6679,10 @@
         <v>11100000</v>
       </c>
       <c r="BC23">
-        <v>7112368.23</v>
+        <v>9501338.199999999</v>
       </c>
       <c r="BD23">
-        <v>4470270.54</v>
+        <v>7736372.68</v>
       </c>
       <c r="BE23" t="s">
         <v>207</v>
@@ -6691,10 +6691,10 @@
         <v>11100000</v>
       </c>
       <c r="BG23">
-        <v>8478253.609999999</v>
+        <v>9736054.08</v>
       </c>
       <c r="BH23">
-        <v>5202184.5</v>
+        <v>8068387.1</v>
       </c>
       <c r="BI23" t="s">
         <v>207</v>
@@ -6703,10 +6703,10 @@
         <v>11100000</v>
       </c>
       <c r="BK23">
-        <v>8382060.51</v>
+        <v>8451527.640000001</v>
       </c>
       <c r="BL23">
-        <v>6476436.72</v>
+        <v>6594465.71</v>
       </c>
       <c r="BM23" t="s">
         <v>395</v>
@@ -6715,19 +6715,19 @@
         <v>7000000</v>
       </c>
       <c r="BO23">
-        <v>5814870.07</v>
+        <v>5900317.28</v>
       </c>
       <c r="BP23">
-        <v>5125180.15</v>
+        <v>5017465.8</v>
       </c>
       <c r="BR23">
         <v>5000000</v>
       </c>
       <c r="BS23">
-        <v>4717043.59</v>
+        <v>3436581.94</v>
       </c>
       <c r="BT23">
-        <v>3233211.17</v>
+        <v>2740305.83</v>
       </c>
       <c r="BU23" t="s">
         <v>207</v>
@@ -6736,10 +6736,10 @@
         <v>4490000</v>
       </c>
       <c r="BW23">
-        <v>2935441.53</v>
+        <v>3392539.7</v>
       </c>
       <c r="BX23">
-        <v>1926321.76</v>
+        <v>2887787.62</v>
       </c>
       <c r="BY23" t="s">
         <v>207</v>
@@ -6748,10 +6748,10 @@
         <v>4490000</v>
       </c>
       <c r="CA23">
-        <v>3808541.82</v>
+        <v>3755143.14</v>
       </c>
       <c r="CB23">
-        <v>2490897.28</v>
+        <v>2731940.42</v>
       </c>
       <c r="CC23" t="s">
         <v>207</v>
@@ -6873,10 +6873,10 @@
         <v>200000</v>
       </c>
       <c r="AQ24">
-        <v>146719.63</v>
+        <v>149646.62</v>
       </c>
       <c r="AR24">
-        <v>137760.33</v>
+        <v>134552.26</v>
       </c>
       <c r="AS24" t="s">
         <v>207</v>
@@ -6885,10 +6885,10 @@
         <v>200000</v>
       </c>
       <c r="AU24">
-        <v>182715</v>
+        <v>148423.26</v>
       </c>
       <c r="AV24">
-        <v>157083.73</v>
+        <v>121718.28</v>
       </c>
       <c r="AW24" t="s">
         <v>207</v>
@@ -6897,10 +6897,10 @@
         <v>200000</v>
       </c>
       <c r="AY24">
-        <v>142851.38</v>
+        <v>155764.74</v>
       </c>
       <c r="AZ24">
-        <v>97421.33</v>
+        <v>103787.69</v>
       </c>
       <c r="BA24" t="s">
         <v>207</v>
@@ -6909,10 +6909,10 @@
         <v>200000</v>
       </c>
       <c r="BC24">
-        <v>169253.62</v>
+        <v>168146.44</v>
       </c>
       <c r="BD24">
-        <v>108933.59</v>
+        <v>157174.52</v>
       </c>
       <c r="BE24" t="s">
         <v>207</v>
@@ -6921,10 +6921,10 @@
         <v>200000</v>
       </c>
       <c r="BG24">
-        <v>144801.99</v>
+        <v>182579.28</v>
       </c>
       <c r="BH24">
-        <v>105292.82</v>
+        <v>143380.44</v>
       </c>
       <c r="BI24" t="s">
         <v>207</v>
@@ -6933,10 +6933,10 @@
         <v>200000</v>
       </c>
       <c r="BK24">
-        <v>165600.01</v>
+        <v>152123.91</v>
       </c>
       <c r="BL24">
-        <v>106584.03</v>
+        <v>123762.51</v>
       </c>
       <c r="BM24" t="s">
         <v>207</v>
@@ -6945,10 +6945,10 @@
         <v>200000</v>
       </c>
       <c r="BO24">
-        <v>178236.08</v>
+        <v>151054.78</v>
       </c>
       <c r="BP24">
-        <v>109539.72</v>
+        <v>127236.68</v>
       </c>
       <c r="BQ24" t="s">
         <v>207</v>
@@ -6957,10 +6957,10 @@
         <v>600000</v>
       </c>
       <c r="BS24">
-        <v>526120.74</v>
+        <v>389345.92</v>
       </c>
       <c r="BT24">
-        <v>398066.37</v>
+        <v>274976.06</v>
       </c>
       <c r="BU24" t="s">
         <v>207</v>
@@ -6969,10 +6969,10 @@
         <v>600000</v>
       </c>
       <c r="BW24">
-        <v>391162.89</v>
+        <v>405096.53</v>
       </c>
       <c r="BX24">
-        <v>306117.21</v>
+        <v>351672.95</v>
       </c>
       <c r="BY24" t="s">
         <v>207</v>
@@ -6981,10 +6981,10 @@
         <v>600000</v>
       </c>
       <c r="CA24">
-        <v>372651.32</v>
+        <v>472459.05</v>
       </c>
       <c r="CB24">
-        <v>256939.25</v>
+        <v>346570.78</v>
       </c>
       <c r="CC24" t="s">
         <v>207</v>
@@ -7109,10 +7109,10 @@
         <v>500000</v>
       </c>
       <c r="AQ25">
-        <v>364643.29</v>
+        <v>376872.8</v>
       </c>
       <c r="AR25">
-        <v>269629.71</v>
+        <v>273177.45</v>
       </c>
       <c r="AS25" t="s">
         <v>207</v>
@@ -7121,10 +7121,10 @@
         <v>500000</v>
       </c>
       <c r="AU25">
-        <v>322379.36</v>
+        <v>411032.81</v>
       </c>
       <c r="AV25">
-        <v>272821.94</v>
+        <v>310253.51</v>
       </c>
       <c r="AW25" t="s">
         <v>207</v>
@@ -7133,10 +7133,10 @@
         <v>500000</v>
       </c>
       <c r="AY25">
-        <v>347958.8</v>
+        <v>354526.77</v>
       </c>
       <c r="AZ25">
-        <v>243768.49</v>
+        <v>297043.86</v>
       </c>
       <c r="BA25" t="s">
         <v>207</v>
@@ -7145,10 +7145,10 @@
         <v>500000</v>
       </c>
       <c r="BC25">
-        <v>376266.79</v>
+        <v>377743.02</v>
       </c>
       <c r="BD25">
-        <v>322703</v>
+        <v>349326.65</v>
       </c>
       <c r="BE25" t="s">
         <v>207</v>
@@ -7157,10 +7157,10 @@
         <v>500000</v>
       </c>
       <c r="BG25">
-        <v>444022.03</v>
+        <v>342863.41</v>
       </c>
       <c r="BH25">
-        <v>380682.18</v>
+        <v>245400.58</v>
       </c>
       <c r="BI25" t="s">
         <v>207</v>
@@ -7169,10 +7169,10 @@
         <v>500000</v>
       </c>
       <c r="BK25">
-        <v>445006.17</v>
+        <v>400132.72</v>
       </c>
       <c r="BL25">
-        <v>397358.7</v>
+        <v>297049.44</v>
       </c>
       <c r="BM25" t="s">
         <v>207</v>
@@ -7181,10 +7181,10 @@
         <v>500000</v>
       </c>
       <c r="BO25">
-        <v>422048.06</v>
+        <v>360566</v>
       </c>
       <c r="BP25">
-        <v>370955.68</v>
+        <v>316955.96</v>
       </c>
       <c r="BQ25" t="s">
         <v>207</v>
@@ -7193,10 +7193,10 @@
         <v>300000</v>
       </c>
       <c r="BS25">
-        <v>215155.1</v>
+        <v>258991.98</v>
       </c>
       <c r="BT25">
-        <v>144414.97</v>
+        <v>179108.29</v>
       </c>
       <c r="BU25" t="s">
         <v>207</v>
@@ -7205,10 +7205,10 @@
         <v>300000</v>
       </c>
       <c r="BW25">
-        <v>250789.54</v>
+        <v>261471.32</v>
       </c>
       <c r="BX25">
-        <v>202325.02</v>
+        <v>209153.47</v>
       </c>
       <c r="BY25" t="s">
         <v>207</v>
@@ -7217,10 +7217,10 @@
         <v>300000</v>
       </c>
       <c r="CA25">
-        <v>197649.47</v>
+        <v>262706.37</v>
       </c>
       <c r="CB25">
-        <v>160441.78</v>
+        <v>237780.36</v>
       </c>
       <c r="CC25" t="s">
         <v>207</v>
@@ -7339,10 +7339,10 @@
         <v>341600</v>
       </c>
       <c r="AQ26">
-        <v>280438.32</v>
+        <v>245255.08</v>
       </c>
       <c r="AR26">
-        <v>257314.52</v>
+        <v>178143.76</v>
       </c>
       <c r="AS26" t="s">
         <v>207</v>
@@ -7351,10 +7351,10 @@
         <v>341600</v>
       </c>
       <c r="AU26">
-        <v>235222.3</v>
+        <v>291931.65</v>
       </c>
       <c r="AV26">
-        <v>156677.68</v>
+        <v>260498.62</v>
       </c>
       <c r="AW26" t="s">
         <v>207</v>
@@ -7363,10 +7363,10 @@
         <v>341600</v>
       </c>
       <c r="AY26">
-        <v>214793.3</v>
+        <v>305951.16</v>
       </c>
       <c r="AZ26">
-        <v>138900.48</v>
+        <v>251613.81</v>
       </c>
       <c r="BA26" t="s">
         <v>207</v>
@@ -7375,10 +7375,10 @@
         <v>341600</v>
       </c>
       <c r="BC26">
-        <v>315337.67</v>
+        <v>291346.01</v>
       </c>
       <c r="BD26">
-        <v>285618.71</v>
+        <v>248831.72</v>
       </c>
       <c r="BE26" t="s">
         <v>207</v>
@@ -7387,10 +7387,10 @@
         <v>273280</v>
       </c>
       <c r="BG26">
-        <v>249758.88</v>
+        <v>198534.44</v>
       </c>
       <c r="BH26">
-        <v>162138.75</v>
+        <v>150352.91</v>
       </c>
       <c r="BI26" t="s">
         <v>207</v>
@@ -7399,10 +7399,10 @@
         <v>273280</v>
       </c>
       <c r="BK26">
-        <v>215718.03</v>
+        <v>209638.81</v>
       </c>
       <c r="BL26">
-        <v>143591.85</v>
+        <v>169552.1</v>
       </c>
       <c r="BM26" t="s">
         <v>207</v>
@@ -7411,10 +7411,10 @@
         <v>273280</v>
       </c>
       <c r="BO26">
-        <v>201923.31</v>
+        <v>237899.26</v>
       </c>
       <c r="BP26">
-        <v>159518.26</v>
+        <v>167075.41</v>
       </c>
       <c r="BQ26" t="s">
         <v>207</v>
@@ -7423,10 +7423,10 @@
         <v>273280</v>
       </c>
       <c r="BS26">
-        <v>224551.82</v>
+        <v>222764.66</v>
       </c>
       <c r="BT26">
-        <v>160955.9</v>
+        <v>172591.53</v>
       </c>
       <c r="BU26" t="s">
         <v>207</v>
@@ -7435,10 +7435,10 @@
         <v>273280</v>
       </c>
       <c r="BW26">
-        <v>257489.48</v>
+        <v>227991.87</v>
       </c>
       <c r="BX26">
-        <v>165837.67</v>
+        <v>161676.95</v>
       </c>
       <c r="BY26" t="s">
         <v>207</v>
@@ -7447,10 +7447,10 @@
         <v>273280</v>
       </c>
       <c r="CA26">
-        <v>210315.81</v>
+        <v>239211.65</v>
       </c>
       <c r="CB26">
-        <v>179488.26</v>
+        <v>210256.1</v>
       </c>
       <c r="CC26" t="s">
         <v>207</v>
@@ -7575,10 +7575,10 @@
         <v>1500000</v>
       </c>
       <c r="AQ27">
-        <v>1054624.14</v>
+        <v>1337047.9</v>
       </c>
       <c r="AR27">
-        <v>982553.12</v>
+        <v>1268192.25</v>
       </c>
       <c r="AS27" t="s">
         <v>207</v>
@@ -7587,10 +7587,10 @@
         <v>1500000</v>
       </c>
       <c r="AU27">
-        <v>1298586.14</v>
+        <v>1107342.31</v>
       </c>
       <c r="AV27">
-        <v>1215355.25</v>
+        <v>752549.09</v>
       </c>
       <c r="AW27" t="s">
         <v>207</v>
@@ -7599,10 +7599,10 @@
         <v>1500000</v>
       </c>
       <c r="AY27">
-        <v>1012603.91</v>
+        <v>1072276.71</v>
       </c>
       <c r="AZ27">
-        <v>610457.53</v>
+        <v>844603.8199999999</v>
       </c>
       <c r="BA27" t="s">
         <v>207</v>
@@ -7611,10 +7611,10 @@
         <v>1500000</v>
       </c>
       <c r="BC27">
-        <v>1353617.67</v>
+        <v>1165116.18</v>
       </c>
       <c r="BD27">
-        <v>982014.74</v>
+        <v>1008815.98</v>
       </c>
       <c r="BE27" t="s">
         <v>207</v>
@@ -7623,10 +7623,10 @@
         <v>1500000</v>
       </c>
       <c r="BG27">
-        <v>1180226.29</v>
+        <v>1250656.43</v>
       </c>
       <c r="BH27">
-        <v>716476.04</v>
+        <v>957791.67</v>
       </c>
       <c r="BI27" t="s">
         <v>207</v>
@@ -7635,10 +7635,10 @@
         <v>1500000</v>
       </c>
       <c r="BK27">
-        <v>1162900.88</v>
+        <v>971752.35</v>
       </c>
       <c r="BL27">
-        <v>740859.4399999999</v>
+        <v>680365.26</v>
       </c>
       <c r="BM27" t="s">
         <v>207</v>
@@ -7647,10 +7647,10 @@
         <v>80000</v>
       </c>
       <c r="BO27">
-        <v>55423.24</v>
+        <v>67782.03999999999</v>
       </c>
       <c r="BP27">
-        <v>39272.04</v>
+        <v>48667.03</v>
       </c>
       <c r="BQ27" t="s">
         <v>207</v>
@@ -7659,10 +7659,10 @@
         <v>80000</v>
       </c>
       <c r="BS27">
-        <v>70761.73</v>
+        <v>65010</v>
       </c>
       <c r="BT27">
-        <v>66442.62</v>
+        <v>60033.97</v>
       </c>
       <c r="BU27" t="s">
         <v>207</v>
@@ -7671,10 +7671,10 @@
         <v>80000</v>
       </c>
       <c r="BW27">
-        <v>75621.28</v>
+        <v>61416.51</v>
       </c>
       <c r="BX27">
-        <v>57724.44</v>
+        <v>44489.92</v>
       </c>
       <c r="BY27" t="s">
         <v>207</v>
@@ -7683,10 +7683,10 @@
         <v>80000</v>
       </c>
       <c r="CA27">
-        <v>62323.99</v>
+        <v>61309.49</v>
       </c>
       <c r="CB27">
-        <v>46534.34</v>
+        <v>45596.35</v>
       </c>
       <c r="CC27" t="s">
         <v>207</v>
@@ -7811,10 +7811,10 @@
         <v>1000000</v>
       </c>
       <c r="AQ28">
-        <v>698896.59</v>
+        <v>626120.09</v>
       </c>
       <c r="AR28">
-        <v>618794.7</v>
+        <v>514218.72</v>
       </c>
       <c r="AS28" t="s">
         <v>207</v>
@@ -7823,10 +7823,10 @@
         <v>1000000</v>
       </c>
       <c r="AU28">
-        <v>638117</v>
+        <v>885971.3199999999</v>
       </c>
       <c r="AV28">
-        <v>419492.77</v>
+        <v>709314.23</v>
       </c>
       <c r="AW28" t="s">
         <v>207</v>
@@ -7835,10 +7835,10 @@
         <v>1000000</v>
       </c>
       <c r="AY28">
-        <v>616530.5</v>
+        <v>770911.53</v>
       </c>
       <c r="AZ28">
-        <v>520655.44</v>
+        <v>656755.14</v>
       </c>
       <c r="BA28" t="s">
         <v>207</v>
@@ -7847,10 +7847,10 @@
         <v>1000000</v>
       </c>
       <c r="BC28">
-        <v>924509.78</v>
+        <v>795656.77</v>
       </c>
       <c r="BD28">
-        <v>775924.24</v>
+        <v>573976.59</v>
       </c>
       <c r="BE28" t="s">
         <v>207</v>
@@ -7859,10 +7859,10 @@
         <v>1000000</v>
       </c>
       <c r="BG28">
-        <v>888932.7</v>
+        <v>778504.8199999999</v>
       </c>
       <c r="BH28">
-        <v>647412.4399999999</v>
+        <v>512271.86</v>
       </c>
       <c r="BI28" t="s">
         <v>207</v>
@@ -7871,10 +7871,10 @@
         <v>1000000</v>
       </c>
       <c r="BK28">
-        <v>867151.3199999999</v>
+        <v>714774.23</v>
       </c>
       <c r="BL28">
-        <v>614726.92</v>
+        <v>606392.09</v>
       </c>
       <c r="BM28" t="s">
         <v>207</v>
@@ -7883,10 +7883,10 @@
         <v>300000</v>
       </c>
       <c r="BO28">
-        <v>232670.05</v>
+        <v>240359.09</v>
       </c>
       <c r="BP28">
-        <v>151909.91</v>
+        <v>215695.49</v>
       </c>
       <c r="BQ28" t="s">
         <v>207</v>
@@ -7895,10 +7895,10 @@
         <v>300000</v>
       </c>
       <c r="BS28">
-        <v>203848.81</v>
+        <v>219296.32</v>
       </c>
       <c r="BT28">
-        <v>131489.54</v>
+        <v>165483.07</v>
       </c>
       <c r="BU28" t="s">
         <v>207</v>
@@ -7907,10 +7907,10 @@
         <v>300000</v>
       </c>
       <c r="BW28">
-        <v>202956.44</v>
+        <v>251203.76</v>
       </c>
       <c r="BX28">
-        <v>188779.59</v>
+        <v>238643.57</v>
       </c>
       <c r="BY28" t="s">
         <v>207</v>
@@ -7919,10 +7919,10 @@
         <v>300000</v>
       </c>
       <c r="CA28">
-        <v>235252.96</v>
+        <v>246555.76</v>
       </c>
       <c r="CB28">
-        <v>176926.73</v>
+        <v>165964.74</v>
       </c>
       <c r="CC28" t="s">
         <v>207</v>
@@ -8053,10 +8053,10 @@
         <v>9218676</v>
       </c>
       <c r="AQ29">
-        <v>6421207.44</v>
+        <v>6236901.54</v>
       </c>
       <c r="AR29">
-        <v>4016749.58</v>
+        <v>4873016.6</v>
       </c>
       <c r="AS29" t="s">
         <v>207</v>
@@ -8065,10 +8065,10 @@
         <v>9218676</v>
       </c>
       <c r="AU29">
-        <v>6238573.7</v>
+        <v>6420399.47</v>
       </c>
       <c r="AV29">
-        <v>5845661.32</v>
+        <v>4922575.3</v>
       </c>
       <c r="AW29" t="s">
         <v>207</v>
@@ -8077,10 +8077,10 @@
         <v>9218676</v>
       </c>
       <c r="AY29">
-        <v>7529476.35</v>
+        <v>8108171.46</v>
       </c>
       <c r="AZ29">
-        <v>7009172.87</v>
+        <v>7088489.5</v>
       </c>
       <c r="BA29" t="s">
         <v>207</v>
@@ -8089,10 +8089,10 @@
         <v>9218676</v>
       </c>
       <c r="BC29">
-        <v>8391490.560000001</v>
+        <v>6943587.79</v>
       </c>
       <c r="BD29">
-        <v>5296067.72</v>
+        <v>5787110.63</v>
       </c>
       <c r="BE29" t="s">
         <v>207</v>
@@ -8101,10 +8101,10 @@
         <v>9218676</v>
       </c>
       <c r="BG29">
-        <v>5754826.03</v>
+        <v>7850093.57</v>
       </c>
       <c r="BH29">
-        <v>4106816.68</v>
+        <v>7176107.18</v>
       </c>
       <c r="BI29" t="s">
         <v>207</v>
@@ -8113,10 +8113,10 @@
         <v>9218676</v>
       </c>
       <c r="BK29">
-        <v>6534963.88</v>
+        <v>6706080.44</v>
       </c>
       <c r="BL29">
-        <v>6082529.28</v>
+        <v>5247802.09</v>
       </c>
       <c r="BM29" t="s">
         <v>207</v>
@@ -8125,10 +8125,10 @@
         <v>9218676</v>
       </c>
       <c r="BO29">
-        <v>6726691.66</v>
+        <v>6348861.65</v>
       </c>
       <c r="BP29">
-        <v>4745697.6</v>
+        <v>4517955.91</v>
       </c>
       <c r="BQ29" t="s">
         <v>207</v>
@@ -8137,10 +8137,10 @@
         <v>9218676</v>
       </c>
       <c r="BS29">
-        <v>6549235.33</v>
+        <v>7656411.04</v>
       </c>
       <c r="BT29">
-        <v>5000269.91</v>
+        <v>6652157.23</v>
       </c>
       <c r="BU29" t="s">
         <v>207</v>
@@ -8149,10 +8149,10 @@
         <v>9218676</v>
       </c>
       <c r="BW29">
-        <v>7043203.6</v>
+        <v>6942290.61</v>
       </c>
       <c r="BX29">
-        <v>5082174.52</v>
+        <v>5322201.58</v>
       </c>
       <c r="BY29" t="s">
         <v>207</v>
@@ -8161,10 +8161,10 @@
         <v>9218676</v>
       </c>
       <c r="CA29">
-        <v>5650867.82</v>
+        <v>6878976.12</v>
       </c>
       <c r="CB29">
-        <v>4736809.94</v>
+        <v>6317155.4</v>
       </c>
       <c r="CC29" t="s">
         <v>207</v>
@@ -8295,10 +8295,10 @@
         <v>16050</v>
       </c>
       <c r="AQ30">
-        <v>14193.11</v>
+        <v>13189.97</v>
       </c>
       <c r="AR30">
-        <v>10751.66</v>
+        <v>10884.85</v>
       </c>
       <c r="AS30" t="s">
         <v>207</v>
@@ -8307,10 +8307,10 @@
         <v>16050</v>
       </c>
       <c r="AU30">
-        <v>13542.02</v>
+        <v>12363.61</v>
       </c>
       <c r="AV30">
-        <v>11340.1</v>
+        <v>11111.45</v>
       </c>
       <c r="AW30" t="s">
         <v>207</v>
@@ -8319,10 +8319,10 @@
         <v>16050</v>
       </c>
       <c r="AY30">
-        <v>11886.87</v>
+        <v>9895.379999999999</v>
       </c>
       <c r="AZ30">
-        <v>8980.719999999999</v>
+        <v>9083.459999999999</v>
       </c>
       <c r="BA30" t="s">
         <v>207</v>
@@ -8331,10 +8331,10 @@
         <v>16050</v>
       </c>
       <c r="BC30">
-        <v>9852.219999999999</v>
+        <v>13270.75</v>
       </c>
       <c r="BD30">
-        <v>7392.87</v>
+        <v>11023.09</v>
       </c>
       <c r="BE30" t="s">
         <v>207</v>
@@ -8343,10 +8343,10 @@
         <v>16050</v>
       </c>
       <c r="BG30">
-        <v>11241.73</v>
+        <v>13855.55</v>
       </c>
       <c r="BH30">
-        <v>9758.950000000001</v>
+        <v>11297.68</v>
       </c>
       <c r="BI30" t="s">
         <v>207</v>
@@ -8355,10 +8355,10 @@
         <v>16050</v>
       </c>
       <c r="BK30">
-        <v>11999.79</v>
+        <v>11008.08</v>
       </c>
       <c r="BL30">
-        <v>10516.03</v>
+        <v>10176.45</v>
       </c>
       <c r="BM30" t="s">
         <v>207</v>
@@ -8367,10 +8367,10 @@
         <v>16050</v>
       </c>
       <c r="BO30">
-        <v>10968.37</v>
+        <v>12103.21</v>
       </c>
       <c r="BP30">
-        <v>8438.639999999999</v>
+        <v>9564.209999999999</v>
       </c>
       <c r="BQ30" t="s">
         <v>207</v>
@@ -8379,10 +8379,10 @@
         <v>16050</v>
       </c>
       <c r="BS30">
-        <v>11320.68</v>
+        <v>11995.76</v>
       </c>
       <c r="BT30">
-        <v>10637.63</v>
+        <v>9514.07</v>
       </c>
       <c r="BU30" t="s">
         <v>207</v>
@@ -8391,10 +8391,10 @@
         <v>16050</v>
       </c>
       <c r="BW30">
-        <v>10831.08</v>
+        <v>13731.43</v>
       </c>
       <c r="BX30">
-        <v>7514.13</v>
+        <v>10779.37</v>
       </c>
       <c r="BY30" t="s">
         <v>207</v>
@@ -8403,10 +8403,10 @@
         <v>16050</v>
       </c>
       <c r="CA30">
-        <v>15034.77</v>
+        <v>14013.8</v>
       </c>
       <c r="CB30">
-        <v>11241.67</v>
+        <v>12201.42</v>
       </c>
       <c r="CC30" t="s">
         <v>207</v>
